--- a/FishLandings/household groups/statistics/Trophic Level_output.xlsx
+++ b/FishLandings/household groups/statistics/Trophic Level_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>255.895695</v>
+        <v>378.925108</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1033.577748</v>
+        <v>1820.247081</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>4.31741</v>
+        <v>6.533915</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>8.719137</v>
+        <v>15.693523</v>
       </c>
       <c r="E3">
-        <v>0.000226</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>55.210883</v>
+        <v>69.113219</v>
       </c>
       <c r="C4">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.031179</v>
+        <v>0.009835999999999999</v>
       </c>
       <c r="H5">
-        <v>-0.186131</v>
+        <v>-0.155587</v>
       </c>
       <c r="I5">
-        <v>0.248489</v>
+        <v>0.175259</v>
       </c>
       <c r="J5">
-        <v>0.938802</v>
+        <v>0.989255</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.273449</v>
+        <v>-0.286166</v>
       </c>
       <c r="H6">
-        <v>-0.507446</v>
+        <v>-0.459916</v>
       </c>
       <c r="I6">
-        <v>-0.039453</v>
+        <v>-0.112416</v>
       </c>
       <c r="J6">
-        <v>0.017291</v>
+        <v>0.000373</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-0.304628</v>
+        <v>-0.296002</v>
       </c>
       <c r="H7">
-        <v>-0.481532</v>
+        <v>-0.426651</v>
       </c>
       <c r="I7">
-        <v>-0.127724</v>
+        <v>-0.165354</v>
       </c>
       <c r="J7">
-        <v>0.000198</v>
+        <v>1e-06</v>
       </c>
     </row>
   </sheetData>

--- a/FishLandings/household groups/statistics/Trophic Level_output.xlsx
+++ b/FishLandings/household groups/statistics/Trophic Level_output.xlsx
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>378.925108</v>
+        <v>255.895695</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1820.247081</v>
+        <v>1033.577748</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -440,16 +440,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>6.533915</v>
+        <v>4.31741</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>15.693523</v>
+        <v>8.719137</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000226</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -464,10 +464,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>69.113219</v>
+        <v>55.210883</v>
       </c>
       <c r="C4">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="G5">
-        <v>0.009835999999999999</v>
+        <v>0.031179</v>
       </c>
       <c r="H5">
-        <v>-0.155587</v>
+        <v>-0.186131</v>
       </c>
       <c r="I5">
-        <v>0.175259</v>
+        <v>0.248489</v>
       </c>
       <c r="J5">
-        <v>0.989255</v>
+        <v>0.938802</v>
       </c>
     </row>
     <row r="6">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="G6">
-        <v>-0.286166</v>
+        <v>-0.273449</v>
       </c>
       <c r="H6">
-        <v>-0.459916</v>
+        <v>-0.507446</v>
       </c>
       <c r="I6">
-        <v>-0.112416</v>
+        <v>-0.039453</v>
       </c>
       <c r="J6">
-        <v>0.000373</v>
+        <v>0.017291</v>
       </c>
     </row>
     <row r="7">
@@ -535,16 +535,16 @@
         </is>
       </c>
       <c r="G7">
-        <v>-0.296002</v>
+        <v>-0.304628</v>
       </c>
       <c r="H7">
-        <v>-0.426651</v>
+        <v>-0.481532</v>
       </c>
       <c r="I7">
-        <v>-0.165354</v>
+        <v>-0.127724</v>
       </c>
       <c r="J7">
-        <v>1e-06</v>
+        <v>0.000198</v>
       </c>
     </row>
   </sheetData>
